--- a/myaddons/dtdream_sale_business_report/static/src/downloads/pro_list_module.xlsx
+++ b/myaddons/dtdream_sale_business_report/static/src/downloads/pro_list_module.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26775" windowHeight="6930" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>BOM</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>临时目录价</t>
+  </si>
+  <si>
+    <t>成本</t>
   </si>
   <si>
     <t>数量</t>
@@ -57,15 +60,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="[$-409]mmm/yy;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,15 +92,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,31 +187,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,89 +234,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -254,19 +250,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,163 +388,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,16 +459,40 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -494,6 +514,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,191 +556,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,15 +1099,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:12">
+    <row r="1" ht="16.5" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,20 +1129,23 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
